--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.091815609657622</v>
+        <v>0.9592697699939519</v>
       </c>
       <c r="D2">
-        <v>0.2749663555357293</v>
+        <v>0.3441951932868075</v>
       </c>
       <c r="E2">
         <v>2.208621677069876</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.4582802440480939</v>
+        <v>0.4826817026439854</v>
       </c>
       <c r="D3">
-        <v>0.6467708781885473</v>
+        <v>0.6324151094773538</v>
       </c>
       <c r="E3">
         <v>2.208621677069876</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.3426653165360325</v>
+        <v>0.423929700445918</v>
       </c>
       <c r="D4">
-        <v>0.731864550698734</v>
+        <v>0.674287262009214</v>
       </c>
       <c r="E4">
         <v>2.208621677069876</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.2177869778173383</v>
+        <v>0.1898368015468584</v>
       </c>
       <c r="D5">
-        <v>0.8276039094873251</v>
+        <v>0.8505658598184254</v>
       </c>
       <c r="E5">
         <v>2.208621677069876</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.6914645779653841</v>
+        <v>-0.6610682953822622</v>
       </c>
       <c r="D6">
-        <v>0.4893054884926678</v>
+        <v>0.5130234776394342</v>
       </c>
       <c r="E6">
         <v>2.048582768176173</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.00908120998936</v>
+        <v>-0.7738502890056013</v>
       </c>
       <c r="D7">
-        <v>0.3129841398460131</v>
+        <v>0.4443670767931187</v>
       </c>
       <c r="E7">
         <v>2.048582768176173</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.9573314223254306</v>
+        <v>-0.6262124666106097</v>
       </c>
       <c r="D8">
-        <v>0.3384459273428455</v>
+        <v>0.535357439098487</v>
       </c>
       <c r="E8">
         <v>2.048582768176173</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.0526291992959512</v>
+        <v>-0.05157100410062943</v>
       </c>
       <c r="D9">
-        <v>0.9580294377085343</v>
+        <v>0.9591723258621734</v>
       </c>
       <c r="E9">
         <v>2.157852061125849</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.1591186362885004</v>
+        <v>-0.2267297295764676</v>
       </c>
       <c r="D10">
-        <v>0.8735817825034302</v>
+        <v>0.8219915974713454</v>
       </c>
       <c r="E10">
         <v>2.157852061125849</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.07385581345832724</v>
+        <v>-0.05723441382199545</v>
       </c>
       <c r="D11">
-        <v>0.9411280470136887</v>
+        <v>0.9546935120213069</v>
       </c>
       <c r="E11">
         <v>2.165999479834959</v>
